--- a/data/trans_bre/P16A15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>193,97%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,51; 0,62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 0,73</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 1,74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,76; 117,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 1,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; -0,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; -0,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,3; 86,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,07; 60,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,18; -35,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,93; -27,57</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 1,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 4,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 3,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; -0,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,32; 42,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,19; 70,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,49; 52,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,82; -1,27</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 5,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 8,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 9,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 5,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,13; 51,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; 55,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 71,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,91; 30,22</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,79%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 10,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 6,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 5,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,76; 28,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,52; 69,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,75; 21,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,68; 20,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,26; 94,69</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,42%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 3,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 3,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 3,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 12,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 62,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 36,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 35,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,52; 109,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>193,97%</t>
+          <t>175,98%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,74</t>
+          <t>-0,36; 1,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-70,43%</t>
+          <t>-70,91%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,85</t>
+          <t>-4,1; -0,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-86,93; -27,57</t>
+          <t>-87,21; -30,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,45%</t>
+          <t>-18,01%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -0,02</t>
+          <t>-4,78; 3,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,82; -1,27</t>
+          <t>-48,47; 89,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,41</t>
+          <t>-3,53; 5,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 30,22</t>
+          <t>-15,75; 28,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>27,23</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>-4,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>97,31%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,81</t>
+          <t>0,58; 13,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 6,1</t>
+          <t>-9,34; 5,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,52</t>
+          <t>-8,45; 5,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 28,75</t>
+          <t>3,29; 54,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 69,59</t>
+          <t>2,2; 90,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 21,17</t>
+          <t>-24,66; 19,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 20,78</t>
+          <t>-24,73; 20,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,26; 94,69</t>
+          <t>11,02; 213,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,92; 11,8</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 11,35</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 8,77</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 11,46</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 75,9</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-11,67; 42,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-19,43; 35,7</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 36,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>62,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,86; 3,3</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,44; 3,58</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,1; 3,11</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 12,79</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 21,76</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>13,46; 62,23</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>3,95; 36,93</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,76; 35,1</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>8,52; 109,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 199,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Edad-trans_bre.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,62</t>
+          <t>-0,53; 0,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,73</t>
+          <t>-2,13; 0,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,16</t>
+          <t>-1,16; 0,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,66</t>
+          <t>-0,4; 1,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,76; 117,71</t>
+          <t>-87,98; 148,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,25</t>
+          <t>-2,17; 1,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,22</t>
+          <t>-2,7; 1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,88</t>
+          <t>-3,73; -0,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; -0,88</t>
+          <t>-4,32; -0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-65,3; 86,83</t>
+          <t>-66,79; 78,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 60,64</t>
+          <t>-58,96; 48,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-90,18; -35,78</t>
+          <t>-90,59; -27,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-87,21; -30,22</t>
+          <t>-87,48; -24,9</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,63</t>
+          <t>-3,23; 1,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,46</t>
+          <t>-2,24; 4,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 3,22</t>
+          <t>-2,71; 3,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,13</t>
+          <t>-4,68; 3,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,32; 42,84</t>
+          <t>-47,81; 51,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 70,05</t>
+          <t>-23,9; 68,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 52,48</t>
+          <t>-29,7; 55,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 89,74</t>
+          <t>-48,0; 98,16</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,8</t>
+          <t>-3,83; 6,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 8,98</t>
+          <t>-2,03; 9,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 9,52</t>
+          <t>-0,12; 9,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,04</t>
+          <t>-3,61; 4,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 51,25</t>
+          <t>-23,83; 54,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 55,96</t>
+          <t>-9,73; 53,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 71,73</t>
+          <t>-0,72; 75,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 28,57</t>
+          <t>-16,42; 23,86</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 13,1</t>
+          <t>1,88; 13,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,67</t>
+          <t>-8,96; 6,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 5,02</t>
+          <t>-8,44; 5,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 54,98</t>
+          <t>3,09; 53,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 90,16</t>
+          <t>7,58; 89,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 19,65</t>
+          <t>-23,59; 21,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 20,15</t>
+          <t>-24,92; 20,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,02; 213,01</t>
+          <t>10,87; 200,22</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 11,8</t>
+          <t>-3,15; 11,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 11,35</t>
+          <t>-3,71; 11,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 8,77</t>
+          <t>-4,92; 9,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,46</t>
+          <t>0,12; 11,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 75,9</t>
+          <t>-13,64; 77,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 42,1</t>
+          <t>-10,46; 44,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 35,7</t>
+          <t>-15,9; 37,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 36,05</t>
+          <t>0,2; 36,57</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,3</t>
+          <t>0,92; 3,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,58</t>
+          <t>0,52; 3,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,11</t>
+          <t>0,16; 3,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 21,76</t>
+          <t>1,51; 23,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,46; 62,23</t>
+          <t>14,64; 63,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,95; 36,93</t>
+          <t>4,49; 37,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 35,1</t>
+          <t>1,61; 35,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,9; 199,87</t>
+          <t>12,59; 222,99</t>
         </is>
       </c>
     </row>
